--- a/public/data/soil/soil_table_eritrea.xlsx
+++ b/public/data/soil/soil_table_eritrea.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13186</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>16.471</v>
+        <v>23.923</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34277.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.795</v>
+        <v>52.513</v>
       </c>
     </row>
     <row r="4">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20806.3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>26.118</v>
+        <v>39.45</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10071.3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.47</v>
+        <v>20.188</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21509.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>24.769</v>
+        <v>30.933</v>
       </c>
     </row>
     <row r="7">
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20845.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>26.345</v>
+        <v>31.059</v>
       </c>
     </row>
     <row r="8">
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>33944.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.302</v>
+        <v>57.74</v>
       </c>
     </row>
     <row r="9">
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3527.8</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4.624</v>
+        <v>4.713</v>
       </c>
     </row>
     <row r="10">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23146</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15.308</v>
+        <v>36.315</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>16970.3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8.061</v>
+        <v>45.086</v>
       </c>
     </row>
     <row r="12">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>24162</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>30.42</v>
+        <v>41.126</v>
       </c>
     </row>
     <row r="13">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41173.4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>42.585</v>
+        <v>43.147</v>
       </c>
     </row>
     <row r="14">
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50042.4</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>54.389</v>
+        <v>54.495</v>
       </c>
     </row>
     <row r="15">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>32168.2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>32.608</v>
+        <v>43.205</v>
       </c>
     </row>
     <row r="16">
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41901.9</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>38.298</v>
+        <v>38.786</v>
       </c>
     </row>
     <row r="17">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>21029.9</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>26.605</v>
+        <v>33.277</v>
       </c>
     </row>
     <row r="18">
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>47155.1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>25.231</v>
+        <v>30.858</v>
       </c>
     </row>
     <row r="19">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45899.7</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>51.199</v>
+        <v>58.892</v>
       </c>
     </row>
     <row r="20">
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>28206.1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>35.242</v>
+        <v>41.209</v>
       </c>
     </row>
     <row r="21">
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>27346.3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>28.041</v>
+        <v>29.776</v>
       </c>
     </row>
     <row r="22">
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>37273.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>44.903</v>
+        <v>48.953</v>
       </c>
     </row>
     <row r="23">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1244.6</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.167</v>
+        <v>2.904</v>
       </c>
     </row>
     <row r="24">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1379.7</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.674</v>
+        <v>3.657</v>
       </c>
     </row>
     <row r="25">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>969.4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.261</v>
+        <v>4.248</v>
       </c>
     </row>
     <row r="26">
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7628.7</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>11.749</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="27">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>11552.5</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>17.07</v>
+        <v>13.712</v>
       </c>
     </row>
     <row r="28">
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>41737.9</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>41.717</v>
+        <v>70.062</v>
       </c>
     </row>
     <row r="29">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>37281.5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>27.21</v>
+        <v>51.455</v>
       </c>
     </row>
     <row r="30">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>61155.8</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.911</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="31">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>30077.2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>31.434</v>
+        <v>46.639</v>
       </c>
     </row>
     <row r="32">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>108895.2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>75.167</v>
+        <v>79.092</v>
       </c>
     </row>
     <row r="33">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>29964.2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.311</v>
+        <v>34.282</v>
       </c>
     </row>
     <row r="34">
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>59929</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>39.166</v>
+        <v>50.66</v>
       </c>
     </row>
     <row r="35">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>33965.2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>19.741</v>
+        <v>20.185</v>
       </c>
     </row>
     <row r="36">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>132917.4</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>88.051</v>
+        <v>100.822</v>
       </c>
     </row>
     <row r="37">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>115319.9</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>92.627</v>
+        <v>91.849</v>
       </c>
     </row>
     <row r="38">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>26141.8</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>32.667</v>
+        <v>31.138</v>
       </c>
     </row>
     <row r="39">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>5169.3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14381.3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>10.035</v>
+        <v>9.148</v>
       </c>
     </row>
     <row r="41">
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>22961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>12.851</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="42">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>16176</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>14.27</v>
+        <v>22.916</v>
       </c>
     </row>
     <row r="43">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>31787.8</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>50.698</v>
+        <v>114.648</v>
       </c>
     </row>
     <row r="44">
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>904.4</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.24</v>
+        <v>3.878</v>
       </c>
     </row>
     <row r="45">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>36375.3</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.524</v>
+        <v>81.557</v>
       </c>
     </row>
     <row r="46">
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>23293</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2340,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.009</v>
+        <v>1.063</v>
       </c>
       <c r="K46" t="n">
-        <v>13.23</v>
+        <v>47.936</v>
       </c>
     </row>
     <row r="47">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>48.2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>39225</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>69.305</v>
+        <v>72.973</v>
       </c>
     </row>
     <row r="48">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>19472.6</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>19.077</v>
+        <v>41.947</v>
       </c>
     </row>
     <row r="49">
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1694.2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1.002</v>
+        <v>16.327</v>
       </c>
     </row>
     <row r="50">
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>38216.6</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>64.202</v>
+        <v>97.305</v>
       </c>
     </row>
     <row r="51">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>14145.3</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>22.243</v>
+        <v>63.875</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_eritrea.xlsx
+++ b/public/data/soil/soil_table_eritrea.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5342.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6515.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11241.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3662</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2597.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>12828.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>12302.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3255.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4107.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>19238</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>33654.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>29055.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>30321.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27462.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>20379.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>28299.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>34055.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>20010.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>13589.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>24372.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>18.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>804.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4115.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2628.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2756.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>19957.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6359.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>57103.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>23320</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>11397.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2204.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>68833.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>48249.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8966.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3672.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>12939.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>18184.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>16031.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3873.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2898.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>202.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>8957</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>229.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>3306.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>5248.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
